--- a/biology/Zoologie/Bathypterois/Bathypterois.xlsx
+++ b/biology/Zoologie/Bathypterois/Bathypterois.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Bathypterois, parfois dénommé poisson trépied ou poisson tripode, et parfois encore, à tort, Benthosaurus, est un genre de poisson de la famille des Ipnopidae.
 </t>
@@ -511,7 +523,9 @@
           <t>Une anatomie particulière</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Lorsqu'il est pêché pour la première fois, au début du XXe siècle, on croit que ses rayons très allongés servent à détecter les mouvements émis par ses éventuelles proies[réf. nécessaire]. Il faut attendre que le Commandant Houot descende à 2 400 mètres de profondeur pour observer et photographier ce curieux poisson[réf. nécessaire]. Ses rayons allongés ne servent pas à détecter la nourriture, mais bien à se tenir dessus, comme un échassier se tient sur des échasses[réf. nécessaire]. Au lieu de profiter le la longueur de son corps pour se mouvoir rapidement, il préfère « s'asseoir » et attendre[réf. nécessaire].
 </t>
@@ -542,9 +556,11 @@
           <t>Liste d'espèces</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Selon FishBase                                           (2 avril 2017)[1], Catalogue of Life                                   (28 juin 2012)[2], World Register of Marine Species                               (28 juin 2012)[3] et ITIS      (28 juin 2012)[4] :
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Selon FishBase                                           (2 avril 2017), Catalogue of Life                                   (28 juin 2012), World Register of Marine Species                               (28 juin 2012) et ITIS      (28 juin 2012) :
 Bathypterois andriashevi Sulak &amp; Shcherbachev, 1988
 Bathypterois atricolor Alcock, 1896
 Bathypterois bigelowi Mead, 1958
